--- a/Improgress/2. Artifact and Deliverable/Test case/module1/K22T1_TeamBDS_ TC_Antaikhoan.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Test case/module1/K22T1_TeamBDS_ TC_Antaikhoan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Test case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Test case\module1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352EC6A3-3944-4329-9384-8C4CB990B20C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D969557-3CFB-4503-8ACC-7DF4808BEC6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="3" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="101">
   <si>
     <t>Author</t>
   </si>
@@ -254,119 +254,126 @@
     <t xml:space="preserve">Hiển thị danh sách các tài khoản  bao gồm " tên đăng nhập  ,mật khẩu  ,/…."  </t>
   </si>
   <si>
-    <t>Admin đang nhập vào WebAdmin bằng tài khoản của mình 
-- Tên đăng nhập : trương quang A
-- mật khẩu : *******
-- SDT : 092554156
-- Email: A@gmail.com
-- ngày sinh :04/08/1998
--Địa chỉ : 556 nguyễn khắc nhu 
+    <t>Ở trang chủ , nhấn chọn   " quản lý tài khoản "</t>
+  </si>
+  <si>
+    <t>Ở trang chủ , nhấn chọn  " Quản lý tài khoản "</t>
+  </si>
+  <si>
+    <t>TR-BDS-ATK-1</t>
+  </si>
+  <si>
+    <t>TR-BDS-ATK-2</t>
+  </si>
+  <si>
+    <t>TR-BDS-ATK-3</t>
+  </si>
+  <si>
+    <t>TR-BDS-ATK-4</t>
+  </si>
+  <si>
+    <t>TC-BDS-ATK-1</t>
+  </si>
+  <si>
+    <t>TC-BDS-ATK-2</t>
+  </si>
+  <si>
+    <t>TC-BDS-ATK-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trong danh sách tài khoản </t>
+  </si>
+  <si>
+    <t>TC-BDS-ATK-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin đang nhập vào WebAdmin bằng tài khoản của mình 
+'có thông tin bao gồm  : 
+- hình ảnh 
+- mã nhân viên : A123
+-tên đăng nhập :Trương Quang A
+- SDT : 0235464646
+- Email : truongquang@gmail.com
 - chức vụ : nhân viên 
-- phòng ban :phòng1
-- doanh số " 5000000</t>
-  </si>
-  <si>
-    <t>Admin đang nhập vào WebAdmin bằng tài khoản của mình 
-- Tên đăng nhập : trương quang A
-- mật khẩu : *******
-- SDT : 092554156
-- Email: A@gmail.com
-- ngày sinh :04/08/1998
--Địa chỉ : 556 nguyễn khắc nhu 
-- chức vụ : nhân viên 
-- phòng ban :phòng1
-- doanh số " 5000001</t>
-  </si>
-  <si>
-    <t>Ở trang chủ , nhấn chọn   " quản lý tài khoản "</t>
-  </si>
-  <si>
-    <t>Ở trang chủ , nhấn chọn  " Quản lý tài khoản "</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ẩn tài khoản  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thay đổi trạng thái sau khi nhấn nút Ẩn </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quay lại trạng thái ban đầu như nhấn nút Ẩn lần nữa </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiển thị ô vuông màu khi tài khoản ở trạng thái " Ẩn tài khoản " </t>
-  </si>
-  <si>
-    <t>TR-BDS-ATK-1</t>
-  </si>
-  <si>
-    <t>TR-BDS-ATK-2</t>
-  </si>
-  <si>
-    <t>TR-BDS-ATK-3</t>
-  </si>
-  <si>
-    <t>TR-BDS-ATK-4</t>
-  </si>
-  <si>
-    <t>TC-BDS-ATK-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiễm tra Thay đổi trạng thái sau khi nhấn nút Ẩn </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhấn nút " Ẩn   " trong danh sách tài khoản
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiển thị trạng thái ẩn ở cột trạng thái trong danh sách </t>
-  </si>
-  <si>
-    <t>TC-BDS-ATK-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiễm tra Quay lại trạng thái ban đầu như nhấn nút Ẩn lần nữa  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">trạng thái tài khoản quay trở lại ban đầu </t>
-  </si>
-  <si>
-    <t>TC-BDS-ATK-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiển thị nút Ẩn trong giao diện danh sách tài khoản </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiểm tra Hiển thị nút Ẩn trong giao diện danh sách tài khoản  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trong danh sách tài khoản </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiển thị nút Ẩn ở trường thông tin cuối của danh sách </t>
-  </si>
-  <si>
-    <t>TC-BDS-ATK-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiễm tra Hiển thị ô vuông màu khi tài khoản ở trạng thái " Ẩn tài khoản " </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiển thị ô vuông màu khi trang thái được thay đổi </t>
-  </si>
-  <si>
-    <t>Test Cases for ''Ẩn tài khoản    "</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhấn nút " ẩn " trong tài khoản 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhấn nút " Ẩn   " trong  tài khoản
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhấn nút " Ẩn   " trong tài khoản
-</t>
+- Phòng ban : kinh doanh 
+- Nhóm : 1
+- Trạng thái : ẩn 
+- Button </t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thay đổi trạng thái sau khi nhấn nút Khóa </t>
+  </si>
+  <si>
+    <t>Thay đổi trạng thái sau khi nhấn nút " Kích hoạt "</t>
+  </si>
+  <si>
+    <t>TR-BDS-ATK-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khóa tài khoản  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiễm tra Thay đổi trạng thái sau khi nhấn nút Khóa </t>
+  </si>
+  <si>
+    <t>Test Cases for "Khóa tài khoản    "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tick chọn tài khoản cần khóa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nhấn nút " KHÓA" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hiễn thị trạng thái " Khóa" ở cột trang thái trong danh sách </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hiện dấu tick vàng ở tài khoản được chọn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tick chọn tài khoản cần kích hoạt  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nhấn nút " Kích hoạt " </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hiễn thị trạng thái " Kích hoạt " ở cột trang thái trong danh sách </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị nút " khóa " và "kích hoạt"  trong giao diện Quản lý tài khoản phía trên danh sách </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra Hiển thị nút " khóa " và "kích hoạt"  trong giao diện Quản lý tài khoản phía trên danh sách </t>
+  </si>
+  <si>
+    <t>Kiểm tra Thay đổi trạng thái sau khi nhấn nút " Kích hoạt "</t>
+  </si>
+  <si>
+    <t>TC-BDS-ATK-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị thông báo " Khóa tài khoản thành công " khi admin nhấn nút khóa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị thông báo " Kích hoạt tài khoản thành công " khi admin nhấn nút khóa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiễm tra Hiển thị thông báo " Khóa tài khoản thành công " khi admin nhấn nút khóa   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hiển thị thông báo " Khóa tài khoản thành công " khi admin nhấn nút khóa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra Hiển thị thông báo " Kích hoạt tài khoản thành công " khi admin nhấn nút khóa </t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>18/05/2020</t>
   </si>
 </sst>
 </file>
@@ -519,7 +526,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -983,11 +990,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1224,6 +1244,15 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1584,8 +1613,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:E20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1645,7 +1674,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="12">
-        <v>43588</v>
+        <v>43895</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>54</v>
@@ -1658,7 +1687,9 @@
       <c r="B8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="12">
+        <v>43962</v>
+      </c>
       <c r="D8" s="10" t="s">
         <v>54</v>
       </c>
@@ -1670,7 +1701,9 @@
       <c r="B9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="12">
+        <v>43968</v>
+      </c>
       <c r="D9" s="10" t="s">
         <v>54</v>
       </c>
@@ -1682,7 +1715,9 @@
       <c r="B10" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="12" t="s">
+        <v>100</v>
+      </c>
       <c r="D10" s="10" t="s">
         <v>54</v>
       </c>
@@ -1794,8 +1829,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1836,7 +1871,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="71" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="G2" s="73"/>
       <c r="H2" s="74"/>
@@ -1918,11 +1953,11 @@
         <v>1</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="16" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E9" s="32" t="s">
         <v>36</v>
@@ -1933,16 +1968,16 @@
       <c r="G9" s="33"/>
       <c r="H9" s="17"/>
     </row>
-    <row r="10" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="27">
         <v>2</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="16" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E10" s="32" t="s">
         <v>36</v>
@@ -1953,18 +1988,18 @@
       <c r="G10" s="33"/>
       <c r="H10" s="17"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27">
         <v>3</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C11" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E11" s="32" t="s">
         <v>35</v>
@@ -1980,13 +2015,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C12" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="E12" s="32" t="s">
         <v>35</v>
@@ -1997,13 +2032,25 @@
       <c r="G12" s="33"/>
       <c r="H12" s="17"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="40"/>
+    <row r="13" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="27">
+        <v>4</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>17</v>
+      </c>
       <c r="G13" s="33"/>
       <c r="H13" s="17"/>
     </row>
@@ -2099,11 +2146,11 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2348A1D5-4253-4771-A133-25F9BE04457B}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <pane ySplit="3" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2120,26 +2167,26 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-    </row>
-    <row r="2" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="95" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+    </row>
+    <row r="2" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="4"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>2</v>
       </c>
@@ -2165,35 +2212,38 @@
       <c r="I3" s="24" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="91" t="s">
+      <c r="J3" s="24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="94" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-    </row>
-    <row r="5" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="81">
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+    </row>
+    <row r="5" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="84">
         <v>1</v>
       </c>
-      <c r="B5" s="83" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="87" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="89" t="s">
-        <v>64</v>
+      <c r="B5" s="86" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="90" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="92" t="s">
+        <v>75</v>
       </c>
       <c r="F5" s="44">
         <v>1</v>
@@ -2205,279 +2255,430 @@
       <c r="I5" s="38" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="82"/>
-      <c r="B6" s="84"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="90"/>
+      <c r="J5" s="81" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="85"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="93"/>
       <c r="F6" s="44">
         <v>2</v>
       </c>
       <c r="G6" s="42" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H6" s="40"/>
       <c r="I6" s="40" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="82"/>
-      <c r="B7" s="84"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="90"/>
+      <c r="J6" s="82"/>
+    </row>
+    <row r="7" spans="1:10" s="43" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="85"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="93"/>
       <c r="F7" s="44">
         <v>3</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H7" s="40"/>
       <c r="I7" s="40" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="81">
+        <v>86</v>
+      </c>
+      <c r="J7" s="82"/>
+    </row>
+    <row r="8" spans="1:10" s="43" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="85"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="44">
+        <v>3</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="82"/>
+    </row>
+    <row r="9" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="84">
         <v>1</v>
       </c>
-      <c r="B8" s="83" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="85" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="87" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="89" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="44">
+      <c r="B9" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="88" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="90" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="92" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="44">
         <v>1</v>
       </c>
-      <c r="G8" s="41" t="s">
+      <c r="G9" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38" t="s">
+      <c r="H9" s="38"/>
+      <c r="I9" s="38" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="82"/>
-      <c r="B9" s="84"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="44">
+      <c r="J9" s="81" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="85"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="44">
         <v>2</v>
       </c>
-      <c r="G9" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="82"/>
-      <c r="B10" s="84"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="44">
-        <v>3</v>
-      </c>
       <c r="G10" s="42" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="H10" s="40"/>
       <c r="I10" s="40" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="82"/>
-      <c r="B11" s="84"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="90"/>
+        <v>62</v>
+      </c>
+      <c r="J10" s="82"/>
+    </row>
+    <row r="11" spans="1:10" s="43" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="85"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="93"/>
       <c r="F11" s="44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11" s="42" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H11" s="40"/>
       <c r="I11" s="40" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11" s="82"/>
+    </row>
+    <row r="12" spans="1:10" s="43" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="85"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="44">
+        <v>3</v>
+      </c>
+      <c r="G12" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="J12" s="82"/>
+    </row>
+    <row r="13" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="94" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="91"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="91"/>
-    </row>
-    <row r="13" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="81">
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+    </row>
+    <row r="14" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="84">
         <v>21</v>
       </c>
-      <c r="B13" s="83" t="s">
+      <c r="B14" s="86" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="87" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="87" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="44">
+      <c r="D14" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="90" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="44">
         <v>1</v>
       </c>
-      <c r="G13" s="41" t="s">
+      <c r="G14" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38" t="s">
+      <c r="H14" s="38"/>
+      <c r="I14" s="38" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="82"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="44">
+      <c r="J14" s="81" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="85"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="44">
         <v>2</v>
       </c>
-      <c r="G14" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="43" customFormat="1" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="82"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="44">
-        <v>3</v>
-      </c>
       <c r="G15" s="42" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="H15" s="40"/>
       <c r="I15" s="40" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="81">
+        <v>63</v>
+      </c>
+      <c r="J15" s="82"/>
+    </row>
+    <row r="16" spans="1:10" s="43" customFormat="1" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="85"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="44">
+        <v>3</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="J16" s="83"/>
+    </row>
+    <row r="17" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="84">
         <v>1</v>
       </c>
-      <c r="B16" s="83" t="s">
+      <c r="B17" s="86" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="90" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="92" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" s="87" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" s="89" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="44">
+      <c r="F17" s="44">
         <v>1</v>
       </c>
-      <c r="G16" s="41" t="s">
+      <c r="G17" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38" t="s">
+      <c r="H17" s="38"/>
+      <c r="I17" s="38" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="82"/>
-      <c r="B17" s="84"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="44">
+      <c r="J17" s="81" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="85"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="44">
         <v>2</v>
       </c>
-      <c r="G17" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="82"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="44">
-        <v>3</v>
-      </c>
       <c r="G18" s="42" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="H18" s="40"/>
       <c r="I18" s="40" t="s">
-        <v>90</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="J18" s="82"/>
+    </row>
+    <row r="19" spans="1:10" s="43" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="85"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="44">
+        <v>3</v>
+      </c>
+      <c r="G19" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="J19" s="82"/>
+    </row>
+    <row r="20" spans="1:10" s="43" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="85"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="44">
+        <v>3</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="J20" s="82"/>
+    </row>
+    <row r="21" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="84">
+        <v>1</v>
+      </c>
+      <c r="B21" s="86" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="88" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="90" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="92" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="44">
+        <v>1</v>
+      </c>
+      <c r="G21" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" s="81" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="85"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="44">
+        <v>2</v>
+      </c>
+      <c r="G22" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="J22" s="82"/>
+    </row>
+    <row r="23" spans="1:10" s="43" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="85"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="44">
+        <v>3</v>
+      </c>
+      <c r="G23" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="J23" s="82"/>
+    </row>
+    <row r="24" spans="1:10" s="43" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="85"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="44">
+        <v>3</v>
+      </c>
+      <c r="G24" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="J24" s="82"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="D16:D18"/>
+  <mergeCells count="33">
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="J9:J12"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="J17:J20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="E21:E24"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="J5:J8"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
